--- a/medicine/Psychotrope/David_Gruber/David_Gruber.xlsx
+++ b/medicine/Psychotrope/David_Gruber/David_Gruber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">David Gruber, né le 25 octobre 1825 à Phalsbourg (Meurthe) et mort le 31 octobre 1880 à Koenigshoffen (Bas-Rhin), est un industriel français, chimiste de formation et diplômé de pharmacie, qui expérimenta de nouvelles techniques de brassage et de maltage et fonda vers 1855 à Koenigshoffen – un quartier de Strasbourg – la Brasserie Gruber[1].
-David Gruber est inhumé avec sa famille au cimetière Saint-Gall de Strasbourg (Koenigshoffen)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David Gruber, né le 25 octobre 1825 à Phalsbourg (Meurthe) et mort le 31 octobre 1880 à Koenigshoffen (Bas-Rhin), est un industriel français, chimiste de formation et diplômé de pharmacie, qui expérimenta de nouvelles techniques de brassage et de maltage et fonda vers 1855 à Koenigshoffen – un quartier de Strasbourg – la Brasserie Gruber.
+David Gruber est inhumé avec sa famille au cimetière Saint-Gall de Strasbourg (Koenigshoffen).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une rue de Strasbourg-Koenigshoffen porte son nom[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une rue de Strasbourg-Koenigshoffen porte son nom.
 </t>
         </is>
       </c>
